--- a/Pre_workshop/Pre-Workshop Example Calculations.xlsx
+++ b/Pre_workshop/Pre-Workshop Example Calculations.xlsx
@@ -4885,7 +4885,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4977,7 +4976,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11374,7 +11372,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11456,7 +11453,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13190,7 +13186,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13282,7 +13277,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14209,7 +14203,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14291,7 +14284,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16025,7 +16017,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16117,7 +16108,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19328,7 +19318,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19420,7 +19409,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -33145,7 +33133,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33355,7 +33343,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:M6"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
